--- a/biology/Zoologie/Josef_Fahringer/Josef_Fahringer.xlsx
+++ b/biology/Zoologie/Josef_Fahringer/Josef_Fahringer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Fahringer est un entomologiste autrichien, né le 21 décembre 1876 à Vienne (Autriche) et mort le 18 décembre 1950 dans cette même ville.
 Il obtient un doctorat à l’université de Vienne en 1904. Il enseigne dans le secondaire à Vienne de 1904 à 1907, Brüx de 1907 à 1910, à Brno de 1910 à 1913 et à nouveau à Vienne de 1918 à 1936. Il est principal à partir de 1928.
